--- a/model_koncepcyjny.xlsx
+++ b/model_koncepcyjny.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-121-23\Desktop\ModelowanieDanych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6FC0A0-A64F-4C8D-A936-6095BB7D744E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF23CC-8E23-4CAE-AD8A-02B266E39BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encje" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -559,6 +559,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,27 +589,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -957,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,32 +1241,32 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="24" t="s">
@@ -1365,7 +1367,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="14"/>
@@ -1410,22 +1412,22 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="31" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="21" t="s">
@@ -1433,7 +1435,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="26"/>
@@ -1598,22 +1600,22 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="31" t="s">
         <v>12</v>
       </c>
       <c r="J20" s="25" t="s">
@@ -1699,27 +1701,27 @@
       <c r="G25" s="37"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="26"/>
@@ -1784,22 +1786,22 @@
       <c r="G31" s="37"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1869,22 +1871,22 @@
       <c r="G37" s="37"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1947,7 +1949,7 @@
   <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,21 +1957,21 @@
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="34" t="s">
         <v>8</v>
       </c>
     </row>

--- a/model_koncepcyjny.xlsx
+++ b/model_koncepcyjny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-121-23\Desktop\ModelowanieDanych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4be20116ea0b14e8/Pulpit/ModelowanieDanych/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF23CC-8E23-4CAE-AD8A-02B266E39BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8ABF23CC-8E23-4CAE-AD8A-02B266E39BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2C1A58E-A0C9-435E-AFCC-CE55D4C79824}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encje" sheetId="1" r:id="rId1"/>
@@ -529,48 +529,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,8 +573,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -637,9 +623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -677,9 +663,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,26 +698,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,26 +733,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -959,56 +911,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1028,55 +980,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1085,15 +1037,15 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1102,15 +1054,15 @@
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1119,12 +1071,12 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1133,12 +1085,12 @@
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1147,12 +1099,12 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1161,12 +1113,12 @@
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1175,12 +1127,12 @@
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1193,14 +1145,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -1221,79 +1173,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -1302,7 +1254,7 @@
       <c r="I4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" t="s">
         <v>51</v>
       </c>
       <c r="K4" t="s">
@@ -1312,7 +1264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1332,7 +1284,7 @@
       <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" t="s">
         <v>52</v>
       </c>
       <c r="K5" t="s">
@@ -1342,7 +1294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
@@ -1362,22 +1314,22 @@
       <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1386,77 +1338,77 @@
       <c r="I7" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I8" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="J9" s="21" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="J9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1"/>
@@ -1472,11 +1424,11 @@
       <c r="G12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1493,11 +1445,11 @@
       <c r="G13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1514,11 +1466,11 @@
       <c r="G14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1535,11 +1487,11 @@
       <c r="G15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1556,94 +1508,94 @@
       <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J18" s="21" t="s">
+    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="35" t="s">
+    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="J19" s="22" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="J19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
+    <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
@@ -1660,85 +1612,85 @@
       <c r="G22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
+    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J24" s="22" t="s">
+    <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
+    <row r="25" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="41" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>41</v>
       </c>
@@ -1756,74 +1708,74 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="35" t="s">
+    <row r="30" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-    </row>
-    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
@@ -1841,85 +1793,85 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="35" t="s">
+    <row r="36" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="29" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="19" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -1948,47 +1900,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="19">
         <v>20</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="1">
@@ -1999,8 +1951,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="1">
@@ -2011,8 +1963,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="1">
@@ -2023,14 +1975,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>7</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E7" s="6" t="s">

--- a/model_koncepcyjny.xlsx
+++ b/model_koncepcyjny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4be20116ea0b14e8/Pulpit/ModelowanieDanych/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-121-14\Desktop\ModelowanieDanych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8ABF23CC-8E23-4CAE-AD8A-02B266E39BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2C1A58E-A0C9-435E-AFCC-CE55D4C79824}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C39E225-0B9C-4174-9EEC-17EE40C49162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encje" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <t>#000000</t>
   </si>
   <si>
-    <t>gdzie 0-dwoolna cyfra szesnastkowa</t>
+    <t>gdzie 0-dwolna liczba heksadecymalna</t>
   </si>
 </sst>
 </file>
@@ -555,6 +555,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,10 +575,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -623,9 +623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -663,9 +663,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -698,9 +698,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,9 +750,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -915,52 +949,52 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -984,33 +1018,33 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +1078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1061,7 +1095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1089,7 +1123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1103,7 +1137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1117,7 +1151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
@@ -1131,7 +1165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
@@ -1145,7 +1179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
@@ -1173,36 +1207,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1234,7 +1268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
@@ -1264,7 +1298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1294,7 +1328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
@@ -1318,7 +1352,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
@@ -1342,7 +1376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
         <v>0</v>
       </c>
@@ -1350,20 +1384,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
       <c r="J9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
@@ -1386,7 +1420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
@@ -1407,7 +1441,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1449,7 +1483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1470,7 +1504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1491,7 +1525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1512,7 +1546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1533,25 +1567,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
       <c r="J19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
         <v>9</v>
       </c>
@@ -1574,7 +1608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
@@ -1595,7 +1629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
@@ -1616,7 +1650,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
@@ -1637,22 +1671,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="25" t="s">
+    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="20" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
         <v>16</v>
       </c>
@@ -1690,7 +1724,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>41</v>
       </c>
@@ -1708,7 +1742,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>43</v>
       </c>
@@ -1726,18 +1760,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="25" t="s">
+    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
         <v>9</v>
       </c>
@@ -1757,7 +1791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>16</v>
       </c>
@@ -1775,7 +1809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
@@ -1793,7 +1827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>44</v>
       </c>
@@ -1811,18 +1845,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="25" t="s">
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="20" t="s">
         <v>9</v>
       </c>
@@ -1842,7 +1876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>45</v>
       </c>
@@ -1860,7 +1894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>39</v>
       </c>
@@ -1900,34 +1934,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>63</v>
       </c>
@@ -1939,7 +1973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
@@ -1951,7 +1985,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
@@ -1963,7 +1997,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>61</v>
       </c>
@@ -1975,7 +2009,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
